--- a/spliced/walkingToRunning/2023-03-27_19-45-19/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-45-19/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.567986605553708</v>
+        <v>-2.211326163574302</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.46308358687929</v>
+        <v>2.150324112876168</v>
       </c>
       <c r="E2" t="n">
-        <v>3.562777431317597</v>
+        <v>1.247732900374419</v>
       </c>
       <c r="F2" t="n">
-        <v>2.821685791015625</v>
+        <v>-1.012200951576233</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.86567759513855</v>
+        <v>-1.622797250747681</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.412291288375854</v>
+        <v>-0.285490870475769</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.61377343119165</v>
+        <v>-4.031598659201058</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.51156460106694</v>
+        <v>4.015500838530144</v>
       </c>
       <c r="E3" t="n">
-        <v>20.08533663190278</v>
+        <v>-0.2885845313525067</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.818390846252441</v>
+        <v>0.4157860279083252</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.551957130432129</v>
+        <v>2.06141996383667</v>
       </c>
       <c r="H3" t="n">
-        <v>1.996838212013245</v>
+        <v>-0.3307646214962005</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.035594037125227</v>
+        <v>-6.420986591104682</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.513396849179556</v>
+        <v>1.20337057380033</v>
       </c>
       <c r="E4" t="n">
-        <v>21.60889010722416</v>
+        <v>-1.732376253138717</v>
       </c>
       <c r="F4" t="n">
-        <v>-11.81717872619629</v>
+        <v>1.623263239860535</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3255714476108551</v>
+        <v>1.307212591171265</v>
       </c>
       <c r="H4" t="n">
-        <v>2.053297281265259</v>
+        <v>-1.966478228569031</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.494862745594324</v>
+        <v>4.567986605553708</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.72800636291483</v>
+        <v>-10.46308358687929</v>
       </c>
       <c r="E5" t="n">
-        <v>16.61688380534384</v>
+        <v>3.562777431317597</v>
       </c>
       <c r="F5" t="n">
-        <v>3.982824087142944</v>
+        <v>2.821685791015625</v>
       </c>
       <c r="G5" t="n">
-        <v>3.520299434661865</v>
+        <v>-1.86567759513855</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3776362538337707</v>
+        <v>-2.412291288375854</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-22.43890388851041</v>
+        <v>17.61377343119165</v>
       </c>
       <c r="D6" t="n">
-        <v>4.036262465588887</v>
+        <v>-10.51156460106694</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.549222749038602</v>
+        <v>20.08533663190278</v>
       </c>
       <c r="F6" t="n">
-        <v>3.116231441497803</v>
+        <v>-4.818390846252441</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.721651554107666</v>
+        <v>-1.551957130432129</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.17768383026123</v>
+        <v>1.996838212013245</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-7.879071504710167</v>
+        <v>2.035594037125227</v>
       </c>
       <c r="D7" t="n">
-        <v>3.041327564409888</v>
+        <v>-6.513396849179556</v>
       </c>
       <c r="E7" t="n">
-        <v>2.442169080233292</v>
+        <v>21.60889010722416</v>
       </c>
       <c r="F7" t="n">
-        <v>7.484880924224853</v>
+        <v>-11.81717872619629</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8297078609466553</v>
+        <v>0.3255714476108551</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.670583963394165</v>
+        <v>2.053297281265259</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.956681896188496</v>
+        <v>-4.494862745594324</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.66369730134245</v>
+        <v>-12.72800636291483</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.55029999077653</v>
+        <v>16.61688380534384</v>
       </c>
       <c r="F8" t="n">
-        <v>3.65365743637085</v>
+        <v>3.982824087142944</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.982856631278992</v>
+        <v>3.520299434661865</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.656236886978149</v>
+        <v>0.3776362538337707</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.13817510658146</v>
+        <v>-22.43890388851041</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.46387473165</v>
+        <v>4.036262465588887</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.35560065541191</v>
+        <v>-9.549222749038602</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.848002910614014</v>
+        <v>3.116231441497803</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.444648742675781</v>
+        <v>-4.721651554107666</v>
       </c>
       <c r="H9" t="n">
-        <v>1.645833611488343</v>
+        <v>-3.17768383026123</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.339946466118201</v>
+        <v>-7.879071504710167</v>
       </c>
       <c r="D10" t="n">
-        <v>6.873994438341972</v>
+        <v>3.041327564409888</v>
       </c>
       <c r="E10" t="n">
-        <v>6.364067559801637</v>
+        <v>2.442169080233292</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.379003524780273</v>
+        <v>7.484880924224853</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.322710037231445</v>
+        <v>-0.8297078609466553</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.161240100860596</v>
+        <v>-0.670583963394165</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-25.97014113911067</v>
+        <v>-5.956681896188496</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.95927179858692</v>
+        <v>-13.66369730134245</v>
       </c>
       <c r="E11" t="n">
-        <v>17.79535382020416</v>
+        <v>-14.55029999077653</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.561911344528198</v>
+        <v>3.65365743637085</v>
       </c>
       <c r="G11" t="n">
-        <v>12.11432075500488</v>
+        <v>-1.982856631278992</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.585113525390625</v>
+        <v>-2.656236886978149</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.63464008096938</v>
+        <v>51.13817510658146</v>
       </c>
       <c r="D12" t="n">
-        <v>37.6902129104022</v>
+        <v>-43.46387473165</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.3809408795236</v>
+        <v>-12.35560065541191</v>
       </c>
       <c r="F12" t="n">
-        <v>4.411060333251953</v>
+        <v>-7.848002910614014</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.473410844802856</v>
+        <v>-2.444648742675781</v>
       </c>
       <c r="H12" t="n">
-        <v>1.188835144042969</v>
+        <v>1.645833611488343</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.154703600446169</v>
+        <v>-2.339946466118201</v>
       </c>
       <c r="D13" t="n">
-        <v>4.50867962437615</v>
+        <v>6.873994438341972</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.51630046780552</v>
+        <v>6.364067559801637</v>
       </c>
       <c r="F13" t="n">
-        <v>6.543187141418457</v>
+        <v>-6.379003524780273</v>
       </c>
       <c r="G13" t="n">
-        <v>8.317185401916504</v>
+        <v>-4.322710037231445</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.709250926971436</v>
+        <v>-7.161240100860596</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-13.39775241153873</v>
+        <v>-25.97014113911067</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.9087138255882</v>
+        <v>-30.95927179858692</v>
       </c>
       <c r="E14" t="n">
-        <v>1.653049628827921</v>
+        <v>17.79535382020416</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.646316528320312</v>
+        <v>-3.561911344528198</v>
       </c>
       <c r="G14" t="n">
-        <v>3.249722480773926</v>
+        <v>12.11432075500488</v>
       </c>
       <c r="H14" t="n">
-        <v>3.988882780075073</v>
+        <v>-1.585113525390625</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.522862165333933</v>
+        <v>73.63464008096938</v>
       </c>
       <c r="D15" t="n">
-        <v>12.32596291376905</v>
+        <v>37.6902129104022</v>
       </c>
       <c r="E15" t="n">
-        <v>12.86789060837735</v>
+        <v>-10.3809408795236</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.768141746520996</v>
+        <v>4.411060333251953</v>
       </c>
       <c r="G15" t="n">
-        <v>1.953295588493347</v>
+        <v>-2.473410844802856</v>
       </c>
       <c r="H15" t="n">
-        <v>5.911684989929199</v>
+        <v>1.188835144042969</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19.89011966449595</v>
+        <v>2.154703600446169</v>
       </c>
       <c r="D16" t="n">
-        <v>5.328304288107542</v>
+        <v>4.50867962437615</v>
       </c>
       <c r="E16" t="n">
-        <v>11.88753799353231</v>
+        <v>-15.51630046780552</v>
       </c>
       <c r="F16" t="n">
-        <v>4.631037712097168</v>
+        <v>6.543187141418457</v>
       </c>
       <c r="G16" t="n">
-        <v>4.573313236236572</v>
+        <v>8.317185401916504</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.092281341552734</v>
+        <v>-3.709250926971436</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-12.95295592792888</v>
+        <v>-13.39775241153873</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.4889181339542</v>
+        <v>-10.9087138255882</v>
       </c>
       <c r="E17" t="n">
-        <v>-11.20622292843621</v>
+        <v>1.653049628827921</v>
       </c>
       <c r="F17" t="n">
-        <v>1.495431542396545</v>
+        <v>-2.646316528320312</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.52443027496338</v>
+        <v>3.249722480773926</v>
       </c>
       <c r="H17" t="n">
-        <v>2.275937557220459</v>
+        <v>3.988882780075073</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-4.303794069663045</v>
+        <v>3.522862165333933</v>
       </c>
       <c r="D18" t="n">
-        <v>6.515993139597406</v>
+        <v>12.32596291376905</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.974593159872695</v>
+        <v>12.86789060837735</v>
       </c>
       <c r="F18" t="n">
-        <v>5.602558612823486</v>
+        <v>-9.768141746520996</v>
       </c>
       <c r="G18" t="n">
-        <v>4.312323570251465</v>
+        <v>1.953295588493347</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.322310447692871</v>
+        <v>5.911684989929199</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7.337878317806332</v>
+        <v>19.89011966449595</v>
       </c>
       <c r="D19" t="n">
-        <v>1.127323491613247</v>
+        <v>5.328304288107542</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9910465711987735</v>
+        <v>11.88753799353231</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.974667429924011</v>
+        <v>4.631037712097168</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5151885151863098</v>
+        <v>4.573313236236572</v>
       </c>
       <c r="H19" t="n">
-        <v>2.722815990447998</v>
+        <v>-8.092281341552734</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-14.0460179291624</v>
+        <v>-12.95295592792888</v>
       </c>
       <c r="D20" t="n">
-        <v>3.849663886278055</v>
+        <v>-19.4889181339542</v>
       </c>
       <c r="E20" t="n">
-        <v>26.29019586200828</v>
+        <v>-11.20622292843621</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.4282546043396</v>
+        <v>1.495431542396545</v>
       </c>
       <c r="G20" t="n">
-        <v>3.407381534576416</v>
+        <v>-11.52443027496338</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7009440064430237</v>
+        <v>2.275937557220459</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-4.303794069663045</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.515993139597406</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-7.974593159872695</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.602558612823486</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.312323570251465</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-4.322310447692871</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.337878317806332</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.127323491613247</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.9910465711987735</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.974667429924011</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5151885151863098</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.722815990447998</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.0460179291624</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.849663886278055</v>
+      </c>
+      <c r="E23" t="n">
+        <v>26.29019586200828</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.4282546043396</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.407381534576416</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7009440064430237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>6.493024794083423</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>21.38743103283101</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>19.31860338775778</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>-3.426622867584229</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.3625893890857696</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>-0.9486179947853088</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>37.32190535987588</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-33.90012039951871</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27.08640504549361</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.35325288772583</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.64194393157959</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-7.271495342254639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3525614285610033</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-16.87390499541134</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.992740513892805</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.133343696594238</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-10.52308177947998</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.896986722946167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-27.24396839887731</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.699085454034913</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-26.36042895396987</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8908939957618713</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.6539392471313477</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.433596611022949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-11.78973249882937</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-39.63500136902936</v>
+      </c>
+      <c r="E28" t="n">
+        <v>31.93103018819374</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.749364018440247</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.2597913742065429</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.243696212768555</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.788272580621008</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-24.42989606164616</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38.63967183448689</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-14.04837512969971</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.555951952934265</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13.38611316680908</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10.84635844310596</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.736711256996685</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13.0294989154327</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.504871368408203</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-7.031145095825195</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.2657834887504577</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-15.62121211217174</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-12.64114606846652</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-11.19534088646288</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.329284429550171</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2.393516063690185</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.149171113967896</v>
       </c>
     </row>
   </sheetData>
